--- a/cypress/fixtures/excelData.xlsx
+++ b/cypress/fixtures/excelData.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20361"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TestingusingCypress\cypress\fixtures\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D20DBC6-437C-4DB5-BC63-F71CC8534491}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
   <si>
     <t>dishToSearch</t>
   </si>
@@ -88,102 +82,120 @@
     <t>momo1</t>
   </si>
   <si>
+    <t>anil.blacktech@gmail.com</t>
+  </si>
+  <si>
+    <t>hello 1 message</t>
+  </si>
+  <si>
+    <t>menu1222</t>
+  </si>
+  <si>
+    <t>menuDescrption1</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>anubhav</t>
+  </si>
+  <si>
+    <t>Anjan</t>
+  </si>
+  <si>
+    <t>veryHardDrinks</t>
+  </si>
+  <si>
+    <t>cateDEscp</t>
+  </si>
+  <si>
+    <t>C500</t>
+  </si>
+  <si>
+    <t>cateDEscpEdited1</t>
+  </si>
+  <si>
+    <t>momo11</t>
+  </si>
+  <si>
+    <t>menu1</t>
+  </si>
+  <si>
+    <t>C191</t>
+  </si>
+  <si>
+    <t>descp new dish</t>
+  </si>
+  <si>
+    <t>momo2</t>
+  </si>
+  <si>
+    <t>testblacktech2@gmail.com</t>
+  </si>
+  <si>
+    <t>hello 2 message</t>
+  </si>
+  <si>
+    <t>menu1223</t>
+  </si>
+  <si>
+    <t>menuDescrption2</t>
+  </si>
+  <si>
+    <t>softyDrink</t>
+  </si>
+  <si>
+    <t>C501</t>
+  </si>
+  <si>
+    <t>cateDEscpEdited2</t>
+  </si>
+  <si>
+    <t>momo12</t>
+  </si>
+  <si>
+    <t>menu2</t>
+  </si>
+  <si>
+    <t>momo3</t>
+  </si>
+  <si>
     <t>tech.blacktech@gmail.com</t>
   </si>
   <si>
-    <t>hello 1 message</t>
-  </si>
-  <si>
-    <t>menuDescrption1</t>
+    <t>menu1224</t>
+  </si>
+  <si>
+    <t>menuDescrption3</t>
+  </si>
+  <si>
+    <t>Veg</t>
+  </si>
+  <si>
+    <t>C113</t>
+  </si>
+  <si>
+    <t>cateDEscpEdited3</t>
+  </si>
+  <si>
+    <t>momo13</t>
+  </si>
+  <si>
+    <t>C192</t>
+  </si>
+  <si>
+    <t>momo4</t>
+  </si>
+  <si>
+    <t>menu1225</t>
+  </si>
+  <si>
+    <t>menuDescrption4</t>
   </si>
   <si>
     <t>table007</t>
   </si>
   <si>
-    <t>anubhav</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>veryHardDrinks</t>
-  </si>
-  <si>
-    <t>cateDEscp</t>
-  </si>
-  <si>
-    <t>C500</t>
-  </si>
-  <si>
-    <t>cateDEscpEdited1</t>
-  </si>
-  <si>
-    <t>momo11</t>
-  </si>
-  <si>
-    <t>menu1</t>
-  </si>
-  <si>
-    <t>C191</t>
-  </si>
-  <si>
-    <t>descp new dish</t>
-  </si>
-  <si>
-    <t>momo2</t>
-  </si>
-  <si>
-    <t>testblacktech2@gmail.com</t>
-  </si>
-  <si>
-    <t>hello 2 message</t>
-  </si>
-  <si>
-    <t>menuDescrption2</t>
-  </si>
-  <si>
-    <t>softyDrink</t>
-  </si>
-  <si>
-    <t>C501</t>
-  </si>
-  <si>
-    <t>cateDEscpEdited2</t>
-  </si>
-  <si>
-    <t>momo12</t>
-  </si>
-  <si>
-    <t>menu2</t>
-  </si>
-  <si>
-    <t>momo3</t>
-  </si>
-  <si>
-    <t>menuDescrption3</t>
-  </si>
-  <si>
-    <t>Veg</t>
-  </si>
-  <si>
-    <t>C113</t>
-  </si>
-  <si>
-    <t>cateDEscpEdited3</t>
-  </si>
-  <si>
-    <t>momo13</t>
-  </si>
-  <si>
-    <t>C192</t>
-  </si>
-  <si>
-    <t>momo4</t>
-  </si>
-  <si>
-    <t>menuDescrption4</t>
-  </si>
-  <si>
     <t>Non veg</t>
   </si>
   <si>
@@ -202,7 +214,7 @@
     <t>momo5</t>
   </si>
   <si>
-    <t>anil.blacktech@gmail.com</t>
+    <t>menu1226</t>
   </si>
   <si>
     <t>menuDescrption5</t>
@@ -215,40 +227,20 @@
   </si>
   <si>
     <t>momo15</t>
-  </si>
-  <si>
-    <t>menu1222</t>
-  </si>
-  <si>
-    <t>menu1223</t>
-  </si>
-  <si>
-    <t>menu1224</t>
-  </si>
-  <si>
-    <t>menu1225</t>
-  </si>
-  <si>
-    <t>menu1226</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -291,40 +283,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="8">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -335,10 +325,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -376,71 +366,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -468,7 +458,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -491,11 +481,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -504,13 +494,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -520,7 +510,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -529,7 +519,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -538,7 +528,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -546,10 +536,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -614,30 +604,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="18" width="20.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="20.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="34.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="6" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="6" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="6" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="6" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="6" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="7" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="7" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="6" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="6" width="28.005" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="6" width="23.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
@@ -646,46 +648,46 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="S1" s="3" t="s">
@@ -694,66 +696,66 @@
       <c r="T1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="3">
         <v>123456789</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="4" t="s">
+      <c r="M2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="4" t="s">
+      <c r="P2" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="S2" s="3">
         <v>100</v>
@@ -761,66 +763,66 @@
       <c r="T2" s="3">
         <v>10</v>
       </c>
-      <c r="U2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" s="4" t="s">
+      <c r="U2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="V2" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="W2" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="4" t="s">
-        <v>36</v>
+      <c r="C3" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D3" s="3">
         <v>123456789</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="G3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="4" t="s">
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R3" s="4" t="s">
+      <c r="M3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="S3" s="3">
         <v>150</v>
@@ -828,66 +830,66 @@
       <c r="T3" s="3">
         <v>9</v>
       </c>
-      <c r="U3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="W3" s="4" t="s">
+      <c r="U3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="W3" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="4" t="s">
-        <v>45</v>
+      <c r="C4" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="D4" s="3">
         <v>123456789</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="G4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="J4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>50</v>
+      <c r="K4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="S4" s="3">
         <v>200</v>
@@ -895,66 +897,66 @@
       <c r="T4" s="3">
         <v>8</v>
       </c>
-      <c r="U4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>35</v>
+      <c r="U4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="4" t="s">
-        <v>52</v>
+      <c r="C5" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="D5" s="3">
         <v>123456789</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="4" t="s">
+      <c r="F5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>56</v>
+      <c r="K5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="S5" s="3">
         <v>250</v>
@@ -962,66 +964,66 @@
       <c r="T5" s="3">
         <v>7</v>
       </c>
-      <c r="U5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>35</v>
+      <c r="U5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="4" t="s">
-        <v>59</v>
+      <c r="C6" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="D6" s="3">
         <v>123456789</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>64</v>
+      <c r="Q6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="S6" s="3">
         <v>300</v>
@@ -1029,14 +1031,14 @@
       <c r="T6" s="3">
         <v>6</v>
       </c>
-      <c r="U6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="W6" s="4" t="s">
+      <c r="U6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V6" s="2" t="s">
         <v>35</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/fixtures/excelData.xlsx
+++ b/cypress/fixtures/excelData.xlsx
@@ -14,7 +14,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="87">
+  <si>
+    <t>staffDepartment</t>
+  </si>
+  <si>
+    <t>staffPosition</t>
+  </si>
+  <si>
+    <t>staffAddress</t>
+  </si>
+  <si>
+    <t>staffRoles</t>
+  </si>
+  <si>
+    <t>staffContact</t>
+  </si>
+  <si>
+    <t>staffFullName</t>
+  </si>
+  <si>
+    <t>staffEmail</t>
+  </si>
+  <si>
+    <t>emailForStaffInvite</t>
+  </si>
   <si>
     <t>dishToSearch</t>
   </si>
@@ -79,6 +103,24 @@
     <t>newDishDescp</t>
   </si>
   <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Waiter</t>
+  </si>
+  <si>
+    <t>lekhnath</t>
+  </si>
+  <si>
+    <t>Receptionist</t>
+  </si>
+  <si>
+    <t>leo</t>
+  </si>
+  <si>
+    <t>anjan.blacktech@gmail.com</t>
+  </si>
+  <si>
     <t>momo1</t>
   </si>
   <si>
@@ -127,6 +169,9 @@
     <t>descp new dish</t>
   </si>
   <si>
+    <t>ablacktech@gmail.com</t>
+  </si>
+  <si>
     <t>momo2</t>
   </si>
   <si>
@@ -155,6 +200,9 @@
   </si>
   <si>
     <t>menu2</t>
+  </si>
+  <si>
+    <t>foya</t>
   </si>
   <si>
     <t>momo3</t>
@@ -234,7 +282,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +293,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -283,10 +337,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -294,11 +354,17 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -608,437 +674,575 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:AC6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="34.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="6" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="7" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="7" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="6" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="6" width="28.005" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="6" width="23.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="24.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="11" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="10" width="34.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="10" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="10" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="10" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="10" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="10" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="10" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="10" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="10" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="10" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="10" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="10" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="10" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="10" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="11" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="11" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="10" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="10" width="28.005" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="10" width="23.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="6">
         <v>123456789</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="3">
+      <c r="G2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="5">
+        <v>123456789</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y2" s="5">
         <v>100</v>
       </c>
-      <c r="T2" s="3">
+      <c r="Z2" s="5">
         <v>10</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>36</v>
+      <c r="AA2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="6">
         <v>123456789</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="5">
+        <v>123456789</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="P3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="Q3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S3" s="3">
+      <c r="T3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y3" s="5">
         <v>150</v>
       </c>
-      <c r="T3" s="3">
+      <c r="Z3" s="5">
         <v>9</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>36</v>
+      <c r="AA3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="6">
         <v>123456789</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="5">
+        <v>123456789</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>200</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>8</v>
+      </c>
+      <c r="AA4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="AB4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC4" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="S4" s="3">
-        <v>200</v>
-      </c>
-      <c r="T4" s="3">
-        <v>8</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="6">
         <v>123456789</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="S5" s="3">
+      <c r="F5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="5">
+        <v>123456789</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" s="5">
         <v>250</v>
       </c>
-      <c r="T5" s="3">
+      <c r="Z5" s="5">
         <v>7</v>
       </c>
-      <c r="U5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>36</v>
+      <c r="AA5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="6">
         <v>123456789</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="S6" s="3">
+      <c r="F6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="5">
+        <v>123456789</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y6" s="5">
         <v>300</v>
       </c>
-      <c r="T6" s="3">
+      <c r="Z6" s="5">
         <v>6</v>
       </c>
-      <c r="U6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>36</v>
+      <c r="AA6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
